--- a/doc/13_外部設計/02_外部設計_アカウント画面.xlsx
+++ b/doc/13_外部設計/02_外部設計_アカウント画面.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C2\doc\13_外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE6C512E-8524-41E9-A5CB-5DB00A9C9448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{520151D6-10E3-48FF-9E6D-6096095EBF06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="61">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -401,6 +401,44 @@
   </si>
   <si>
     <t>new_pw</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>userID,メールアドレス,ニックネームをDBから表示する。</t>
+    <rPh sb="26" eb="28">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>pw欄が空欄の場合pwは更新されない。</t>
+    <rPh sb="2" eb="3">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>edit</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>変更ボタン</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>submit</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -806,6 +844,24 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -859,24 +915,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1183,10 +1221,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN110"/>
+  <dimension ref="A1:AN111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W88" sqref="W88"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="Q87" sqref="Q87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1195,200 +1233,200 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="27" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27" t="s">
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="27"/>
-      <c r="W1" s="27"/>
-      <c r="X1" s="27"/>
-      <c r="Y1" s="27"/>
-      <c r="Z1" s="27"/>
-      <c r="AA1" s="27"/>
-      <c r="AB1" s="27"/>
-      <c r="AC1" s="27"/>
-      <c r="AD1" s="27"/>
-      <c r="AE1" s="27"/>
-      <c r="AF1" s="27"/>
-      <c r="AG1" s="27"/>
-      <c r="AH1" s="27"/>
-      <c r="AI1" s="27"/>
-      <c r="AJ1" s="27"/>
-      <c r="AK1" s="27"/>
-      <c r="AL1" s="27"/>
-      <c r="AM1" s="27"/>
-      <c r="AN1" s="28"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="33"/>
+      <c r="AA1" s="33"/>
+      <c r="AB1" s="33"/>
+      <c r="AC1" s="33"/>
+      <c r="AD1" s="33"/>
+      <c r="AE1" s="33"/>
+      <c r="AF1" s="33"/>
+      <c r="AG1" s="33"/>
+      <c r="AH1" s="33"/>
+      <c r="AI1" s="33"/>
+      <c r="AJ1" s="33"/>
+      <c r="AK1" s="33"/>
+      <c r="AL1" s="33"/>
+      <c r="AM1" s="33"/>
+      <c r="AN1" s="34"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="23"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="29" t="s">
+      <c r="A2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29" t="s">
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
-      <c r="U2" s="29"/>
-      <c r="V2" s="29"/>
-      <c r="W2" s="29" t="s">
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="35"/>
+      <c r="V2" s="35"/>
+      <c r="W2" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="29"/>
-      <c r="Y2" s="29" t="s">
+      <c r="X2" s="35"/>
+      <c r="Y2" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="Z2" s="29"/>
-      <c r="AA2" s="29"/>
-      <c r="AB2" s="29"/>
-      <c r="AC2" s="29"/>
-      <c r="AD2" s="29"/>
-      <c r="AE2" s="29"/>
-      <c r="AF2" s="30" t="s">
+      <c r="Z2" s="35"/>
+      <c r="AA2" s="35"/>
+      <c r="AB2" s="35"/>
+      <c r="AC2" s="35"/>
+      <c r="AD2" s="35"/>
+      <c r="AE2" s="35"/>
+      <c r="AF2" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="30"/>
-      <c r="AH2" s="31"/>
-      <c r="AI2" s="31"/>
-      <c r="AJ2" s="31"/>
-      <c r="AK2" s="31"/>
-      <c r="AL2" s="31"/>
-      <c r="AM2" s="31"/>
-      <c r="AN2" s="32"/>
+      <c r="AG2" s="36"/>
+      <c r="AH2" s="37"/>
+      <c r="AI2" s="37"/>
+      <c r="AJ2" s="37"/>
+      <c r="AK2" s="37"/>
+      <c r="AL2" s="37"/>
+      <c r="AM2" s="37"/>
+      <c r="AN2" s="38"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="23"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="29" t="s">
+      <c r="A3" s="29"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29" t="s">
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="29"/>
-      <c r="S3" s="29"/>
-      <c r="T3" s="29"/>
-      <c r="U3" s="29"/>
-      <c r="V3" s="29"/>
-      <c r="W3" s="29" t="s">
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="35"/>
+      <c r="S3" s="35"/>
+      <c r="T3" s="35"/>
+      <c r="U3" s="35"/>
+      <c r="V3" s="35"/>
+      <c r="W3" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="29"/>
-      <c r="Y3" s="33">
+      <c r="X3" s="35"/>
+      <c r="Y3" s="39">
         <v>45450</v>
       </c>
-      <c r="Z3" s="29"/>
-      <c r="AA3" s="29"/>
-      <c r="AB3" s="29"/>
-      <c r="AC3" s="29"/>
-      <c r="AD3" s="29"/>
-      <c r="AE3" s="29"/>
-      <c r="AF3" s="34" t="s">
+      <c r="Z3" s="35"/>
+      <c r="AA3" s="35"/>
+      <c r="AB3" s="35"/>
+      <c r="AC3" s="35"/>
+      <c r="AD3" s="35"/>
+      <c r="AE3" s="35"/>
+      <c r="AF3" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="34"/>
-      <c r="AH3" s="35"/>
-      <c r="AI3" s="35"/>
-      <c r="AJ3" s="35"/>
-      <c r="AK3" s="35"/>
-      <c r="AL3" s="35"/>
-      <c r="AM3" s="35"/>
-      <c r="AN3" s="36"/>
+      <c r="AG3" s="40"/>
+      <c r="AH3" s="41"/>
+      <c r="AI3" s="41"/>
+      <c r="AJ3" s="41"/>
+      <c r="AK3" s="41"/>
+      <c r="AL3" s="41"/>
+      <c r="AM3" s="41"/>
+      <c r="AN3" s="42"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="25"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="37" t="s">
+      <c r="A4" s="31"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19"/>
-      <c r="V4" s="19"/>
-      <c r="W4" s="19"/>
-      <c r="X4" s="19"/>
-      <c r="Y4" s="19"/>
-      <c r="Z4" s="19"/>
-      <c r="AA4" s="19"/>
-      <c r="AB4" s="19"/>
-      <c r="AC4" s="19"/>
-      <c r="AD4" s="19"/>
-      <c r="AE4" s="19"/>
-      <c r="AF4" s="19"/>
-      <c r="AG4" s="19"/>
-      <c r="AH4" s="19"/>
-      <c r="AI4" s="19"/>
-      <c r="AJ4" s="19"/>
-      <c r="AK4" s="19"/>
-      <c r="AL4" s="19"/>
-      <c r="AM4" s="19"/>
-      <c r="AN4" s="20"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="25"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="25"/>
+      <c r="V4" s="25"/>
+      <c r="W4" s="25"/>
+      <c r="X4" s="25"/>
+      <c r="Y4" s="25"/>
+      <c r="Z4" s="25"/>
+      <c r="AA4" s="25"/>
+      <c r="AB4" s="25"/>
+      <c r="AC4" s="25"/>
+      <c r="AD4" s="25"/>
+      <c r="AE4" s="25"/>
+      <c r="AF4" s="25"/>
+      <c r="AG4" s="25"/>
+      <c r="AH4" s="25"/>
+      <c r="AI4" s="25"/>
+      <c r="AJ4" s="25"/>
+      <c r="AK4" s="25"/>
+      <c r="AL4" s="25"/>
+      <c r="AM4" s="25"/>
+      <c r="AN4" s="26"/>
     </row>
     <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
@@ -2994,7 +3032,9 @@
     <row r="45" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
-      <c r="C45" s="2"/>
+      <c r="C45" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
@@ -3069,7 +3109,7 @@
     <row r="47" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="6"/>
       <c r="B47" s="6"/>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="2" t="s">
         <v>47</v>
       </c>
       <c r="L47" s="8"/>
@@ -3105,7 +3145,7 @@
     <row r="48" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="2" t="s">
         <v>48</v>
       </c>
       <c r="E48" s="8"/>
@@ -3148,7 +3188,7 @@
     <row r="49" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D49" s="8"/>
@@ -3182,7 +3222,7 @@
     <row r="50" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="2" t="s">
         <v>49</v>
       </c>
       <c r="O50" s="8"/>
@@ -3385,8 +3425,8 @@
     <row r="55" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
-      <c r="C55" s="1" t="s">
-        <v>51</v>
+      <c r="C55" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
@@ -3428,6 +3468,9 @@
     <row r="56" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
+      <c r="C56" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
@@ -3468,9 +3511,6 @@
     <row r="57" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
-      <c r="C57" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
@@ -3480,11 +3520,11 @@
       <c r="K57" s="8"/>
       <c r="L57" s="8"/>
       <c r="M57" s="8"/>
-      <c r="N57" s="8"/>
-      <c r="O57" s="8"/>
-      <c r="P57" s="8"/>
-      <c r="Q57" s="8"/>
-      <c r="R57" s="8"/>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
+      <c r="P57" s="2"/>
+      <c r="Q57" s="2"/>
+      <c r="R57" s="2"/>
       <c r="S57" s="8"/>
       <c r="T57" s="8"/>
       <c r="U57" s="8"/>
@@ -3512,7 +3552,7 @@
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
       <c r="C58" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
@@ -3554,6 +3594,9 @@
     <row r="59" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
+      <c r="C59" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
@@ -4114,8 +4157,6 @@
     <row r="73" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="6"/>
       <c r="B73" s="6"/>
-      <c r="C73" s="8"/>
-      <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
@@ -4155,49 +4196,49 @@
     </row>
     <row r="74" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="6"/>
-      <c r="B74" s="9"/>
-      <c r="C74" s="10"/>
-      <c r="D74" s="10"/>
-      <c r="E74" s="10"/>
-      <c r="F74" s="10"/>
-      <c r="G74" s="10"/>
-      <c r="H74" s="10"/>
-      <c r="I74" s="10"/>
-      <c r="J74" s="10"/>
-      <c r="K74" s="10"/>
-      <c r="L74" s="10"/>
-      <c r="M74" s="10"/>
-      <c r="N74" s="10"/>
-      <c r="O74" s="10"/>
-      <c r="P74" s="10"/>
-      <c r="Q74" s="10"/>
-      <c r="R74" s="10"/>
-      <c r="S74" s="10"/>
-      <c r="T74" s="10"/>
-      <c r="U74" s="10"/>
-      <c r="V74" s="10"/>
-      <c r="W74" s="10"/>
-      <c r="X74" s="10"/>
-      <c r="Y74" s="10"/>
-      <c r="Z74" s="10"/>
-      <c r="AA74" s="10"/>
-      <c r="AB74" s="10"/>
-      <c r="AC74" s="10"/>
-      <c r="AD74" s="10"/>
-      <c r="AE74" s="10"/>
-      <c r="AF74" s="10"/>
-      <c r="AG74" s="10"/>
-      <c r="AH74" s="10"/>
-      <c r="AI74" s="10"/>
-      <c r="AJ74" s="10"/>
-      <c r="AK74" s="10"/>
-      <c r="AL74" s="10"/>
-      <c r="AM74" s="11"/>
+      <c r="B74" s="6"/>
+      <c r="C74" s="8"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c r="H74" s="8"/>
+      <c r="I74" s="8"/>
+      <c r="J74" s="8"/>
+      <c r="K74" s="8"/>
+      <c r="L74" s="8"/>
+      <c r="M74" s="8"/>
+      <c r="N74" s="8"/>
+      <c r="O74" s="8"/>
+      <c r="P74" s="8"/>
+      <c r="Q74" s="8"/>
+      <c r="R74" s="8"/>
+      <c r="S74" s="8"/>
+      <c r="T74" s="8"/>
+      <c r="U74" s="8"/>
+      <c r="V74" s="8"/>
+      <c r="W74" s="8"/>
+      <c r="X74" s="8"/>
+      <c r="Y74" s="8"/>
+      <c r="Z74" s="8"/>
+      <c r="AA74" s="8"/>
+      <c r="AB74" s="8"/>
+      <c r="AC74" s="8"/>
+      <c r="AD74" s="8"/>
+      <c r="AE74" s="8"/>
+      <c r="AF74" s="8"/>
+      <c r="AG74" s="8"/>
+      <c r="AH74" s="8"/>
+      <c r="AI74" s="8"/>
+      <c r="AJ74" s="8"/>
+      <c r="AK74" s="8"/>
+      <c r="AL74" s="8"/>
+      <c r="AM74" s="7"/>
       <c r="AN74" s="7"/>
     </row>
     <row r="75" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="9"/>
-      <c r="B75" s="10"/>
+      <c r="A75" s="6"/>
+      <c r="B75" s="9"/>
       <c r="C75" s="10"/>
       <c r="D75" s="10"/>
       <c r="E75" s="10"/>
@@ -4234,56 +4275,54 @@
       <c r="AJ75" s="10"/>
       <c r="AK75" s="10"/>
       <c r="AL75" s="10"/>
-      <c r="AM75" s="10"/>
-      <c r="AN75" s="11"/>
+      <c r="AM75" s="11"/>
+      <c r="AN75" s="7"/>
     </row>
     <row r="76" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="3"/>
-      <c r="B76" s="4"/>
-      <c r="C76" s="4"/>
-      <c r="D76" s="4"/>
-      <c r="E76" s="4"/>
-      <c r="F76" s="4"/>
-      <c r="G76" s="4"/>
-      <c r="H76" s="4"/>
-      <c r="I76" s="4"/>
-      <c r="J76" s="4"/>
-      <c r="K76" s="4"/>
-      <c r="L76" s="4"/>
-      <c r="M76" s="4"/>
-      <c r="N76" s="4"/>
-      <c r="O76" s="4"/>
-      <c r="P76" s="4"/>
-      <c r="Q76" s="4"/>
-      <c r="R76" s="4"/>
-      <c r="S76" s="4"/>
-      <c r="T76" s="4"/>
-      <c r="U76" s="4"/>
-      <c r="V76" s="4"/>
-      <c r="W76" s="4"/>
-      <c r="X76" s="4"/>
-      <c r="Y76" s="4"/>
-      <c r="Z76" s="4"/>
-      <c r="AA76" s="4"/>
-      <c r="AB76" s="4"/>
-      <c r="AC76" s="4"/>
-      <c r="AD76" s="4"/>
-      <c r="AE76" s="4"/>
-      <c r="AF76" s="4"/>
-      <c r="AG76" s="4"/>
-      <c r="AH76" s="4"/>
-      <c r="AI76" s="4"/>
-      <c r="AJ76" s="4"/>
-      <c r="AK76" s="4"/>
-      <c r="AL76" s="4"/>
-      <c r="AM76" s="4"/>
-      <c r="AN76" s="5"/>
+      <c r="A76" s="9"/>
+      <c r="B76" s="10"/>
+      <c r="C76" s="10"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="10"/>
+      <c r="F76" s="10"/>
+      <c r="G76" s="10"/>
+      <c r="H76" s="10"/>
+      <c r="I76" s="10"/>
+      <c r="J76" s="10"/>
+      <c r="K76" s="10"/>
+      <c r="L76" s="10"/>
+      <c r="M76" s="10"/>
+      <c r="N76" s="10"/>
+      <c r="O76" s="10"/>
+      <c r="P76" s="10"/>
+      <c r="Q76" s="10"/>
+      <c r="R76" s="10"/>
+      <c r="S76" s="10"/>
+      <c r="T76" s="10"/>
+      <c r="U76" s="10"/>
+      <c r="V76" s="10"/>
+      <c r="W76" s="10"/>
+      <c r="X76" s="10"/>
+      <c r="Y76" s="10"/>
+      <c r="Z76" s="10"/>
+      <c r="AA76" s="10"/>
+      <c r="AB76" s="10"/>
+      <c r="AC76" s="10"/>
+      <c r="AD76" s="10"/>
+      <c r="AE76" s="10"/>
+      <c r="AF76" s="10"/>
+      <c r="AG76" s="10"/>
+      <c r="AH76" s="10"/>
+      <c r="AI76" s="10"/>
+      <c r="AJ76" s="10"/>
+      <c r="AK76" s="10"/>
+      <c r="AL76" s="10"/>
+      <c r="AM76" s="10"/>
+      <c r="AN76" s="11"/>
     </row>
     <row r="77" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="6"/>
-      <c r="B77" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="A77" s="3"/>
+      <c r="B77" s="4"/>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
@@ -4320,158 +4359,146 @@
       <c r="AJ77" s="4"/>
       <c r="AK77" s="4"/>
       <c r="AL77" s="4"/>
-      <c r="AM77" s="5"/>
-      <c r="AN77" s="7"/>
+      <c r="AM77" s="4"/>
+      <c r="AN77" s="5"/>
     </row>
     <row r="78" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="6"/>
-      <c r="B78" s="6"/>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
-      <c r="E78" s="2"/>
-      <c r="F78" s="2"/>
-      <c r="G78" s="2"/>
-      <c r="H78" s="2"/>
-      <c r="I78" s="2"/>
-      <c r="J78" s="2"/>
-      <c r="K78" s="2"/>
-      <c r="L78" s="2"/>
-      <c r="M78" s="2"/>
-      <c r="N78" s="2"/>
-      <c r="O78" s="2"/>
-      <c r="P78" s="2"/>
-      <c r="Q78" s="2"/>
-      <c r="R78" s="2"/>
-      <c r="S78" s="2"/>
-      <c r="T78" s="2"/>
-      <c r="U78" s="2"/>
-      <c r="V78" s="2"/>
-      <c r="W78" s="2"/>
-      <c r="X78" s="2"/>
-      <c r="Y78" s="2"/>
-      <c r="Z78" s="2"/>
-      <c r="AA78" s="2"/>
-      <c r="AB78" s="2"/>
-      <c r="AC78" s="2"/>
-      <c r="AD78" s="2"/>
-      <c r="AE78" s="2"/>
-      <c r="AF78" s="2"/>
-      <c r="AG78" s="2"/>
-      <c r="AH78" s="2"/>
-      <c r="AI78" s="2"/>
-      <c r="AJ78" s="2"/>
-      <c r="AK78" s="2"/>
-      <c r="AL78" s="2"/>
-      <c r="AM78" s="7"/>
+      <c r="B78" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="4"/>
+      <c r="I78" s="4"/>
+      <c r="J78" s="4"/>
+      <c r="K78" s="4"/>
+      <c r="L78" s="4"/>
+      <c r="M78" s="4"/>
+      <c r="N78" s="4"/>
+      <c r="O78" s="4"/>
+      <c r="P78" s="4"/>
+      <c r="Q78" s="4"/>
+      <c r="R78" s="4"/>
+      <c r="S78" s="4"/>
+      <c r="T78" s="4"/>
+      <c r="U78" s="4"/>
+      <c r="V78" s="4"/>
+      <c r="W78" s="4"/>
+      <c r="X78" s="4"/>
+      <c r="Y78" s="4"/>
+      <c r="Z78" s="4"/>
+      <c r="AA78" s="4"/>
+      <c r="AB78" s="4"/>
+      <c r="AC78" s="4"/>
+      <c r="AD78" s="4"/>
+      <c r="AE78" s="4"/>
+      <c r="AF78" s="4"/>
+      <c r="AG78" s="4"/>
+      <c r="AH78" s="4"/>
+      <c r="AI78" s="4"/>
+      <c r="AJ78" s="4"/>
+      <c r="AK78" s="4"/>
+      <c r="AL78" s="4"/>
+      <c r="AM78" s="5"/>
       <c r="AN78" s="7"/>
     </row>
     <row r="79" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="6"/>
-      <c r="B79" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C79" s="13"/>
-      <c r="D79" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E79" s="15"/>
-      <c r="F79" s="15"/>
-      <c r="G79" s="13"/>
-      <c r="H79" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I79" s="16"/>
-      <c r="J79" s="15"/>
-      <c r="K79" s="17"/>
-      <c r="L79" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="M79" s="15"/>
-      <c r="N79" s="17"/>
-      <c r="O79" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="P79" s="15"/>
-      <c r="Q79" s="15"/>
-      <c r="R79" s="17"/>
-      <c r="S79" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="T79" s="17"/>
-      <c r="U79" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="V79" s="17"/>
-      <c r="W79" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="X79" s="15"/>
-      <c r="Y79" s="15"/>
-      <c r="Z79" s="17"/>
-      <c r="AA79" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB79" s="15"/>
-      <c r="AC79" s="17"/>
-      <c r="AD79" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="AE79" s="15"/>
-      <c r="AF79" s="15"/>
-      <c r="AG79" s="15"/>
-      <c r="AH79" s="15"/>
-      <c r="AI79" s="15"/>
-      <c r="AJ79" s="15"/>
-      <c r="AK79" s="15"/>
-      <c r="AL79" s="15"/>
-      <c r="AM79" s="18"/>
+      <c r="B79" s="6"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
+      <c r="J79" s="2"/>
+      <c r="K79" s="2"/>
+      <c r="L79" s="2"/>
+      <c r="M79" s="2"/>
+      <c r="N79" s="2"/>
+      <c r="O79" s="2"/>
+      <c r="P79" s="2"/>
+      <c r="Q79" s="2"/>
+      <c r="R79" s="2"/>
+      <c r="S79" s="2"/>
+      <c r="T79" s="2"/>
+      <c r="U79" s="2"/>
+      <c r="V79" s="2"/>
+      <c r="W79" s="2"/>
+      <c r="X79" s="2"/>
+      <c r="Y79" s="2"/>
+      <c r="Z79" s="2"/>
+      <c r="AA79" s="2"/>
+      <c r="AB79" s="2"/>
+      <c r="AC79" s="2"/>
+      <c r="AD79" s="2"/>
+      <c r="AE79" s="2"/>
+      <c r="AF79" s="2"/>
+      <c r="AG79" s="2"/>
+      <c r="AH79" s="2"/>
+      <c r="AI79" s="2"/>
+      <c r="AJ79" s="2"/>
+      <c r="AK79" s="2"/>
+      <c r="AL79" s="2"/>
+      <c r="AM79" s="7"/>
       <c r="AN79" s="7"/>
     </row>
     <row r="80" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="6"/>
-      <c r="B80" s="12"/>
-      <c r="C80" s="13">
-        <v>1</v>
-      </c>
+      <c r="B80" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C80" s="13"/>
       <c r="D80" s="14" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="E80" s="15"/>
       <c r="F80" s="15"/>
       <c r="G80" s="13"/>
       <c r="H80" s="14" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="I80" s="16"/>
       <c r="J80" s="15"/>
       <c r="K80" s="17"/>
       <c r="L80" s="14" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="M80" s="15"/>
       <c r="N80" s="17"/>
       <c r="O80" s="14" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="P80" s="15"/>
       <c r="Q80" s="15"/>
       <c r="R80" s="17"/>
-      <c r="S80" s="14"/>
+      <c r="S80" s="14" t="s">
+        <v>18</v>
+      </c>
       <c r="T80" s="17"/>
-      <c r="U80" s="14"/>
+      <c r="U80" s="14" t="s">
+        <v>15</v>
+      </c>
       <c r="V80" s="17"/>
-      <c r="W80" s="38" t="s">
-        <v>33</v>
+      <c r="W80" s="14" t="s">
+        <v>16</v>
       </c>
       <c r="X80" s="15"/>
       <c r="Y80" s="15"/>
       <c r="Z80" s="17"/>
-      <c r="AA80" s="38" t="s">
-        <v>34</v>
+      <c r="AA80" s="14" t="s">
+        <v>19</v>
       </c>
       <c r="AB80" s="15"/>
       <c r="AC80" s="17"/>
-      <c r="AD80" s="14"/>
+      <c r="AD80" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="AE80" s="15"/>
       <c r="AF80" s="15"/>
       <c r="AG80" s="15"/>
@@ -4487,16 +4514,16 @@
       <c r="A81" s="6"/>
       <c r="B81" s="12"/>
       <c r="C81" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D81" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E81" s="15"/>
       <c r="F81" s="15"/>
       <c r="G81" s="13"/>
       <c r="H81" s="14" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="I81" s="16"/>
       <c r="J81" s="15"/>
@@ -4507,7 +4534,7 @@
       <c r="M81" s="15"/>
       <c r="N81" s="17"/>
       <c r="O81" s="14" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="P81" s="15"/>
       <c r="Q81" s="15"/>
@@ -4516,14 +4543,14 @@
       <c r="T81" s="17"/>
       <c r="U81" s="14"/>
       <c r="V81" s="17"/>
-      <c r="W81" s="39" t="s">
+      <c r="W81" s="19" t="s">
         <v>33</v>
       </c>
       <c r="X81" s="15"/>
       <c r="Y81" s="15"/>
       <c r="Z81" s="17"/>
-      <c r="AA81" s="39" t="s">
-        <v>35</v>
+      <c r="AA81" s="19" t="s">
+        <v>34</v>
       </c>
       <c r="AB81" s="15"/>
       <c r="AC81" s="17"/>
@@ -4543,16 +4570,16 @@
       <c r="A82" s="6"/>
       <c r="B82" s="12"/>
       <c r="C82" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D82" s="14" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="E82" s="15"/>
       <c r="F82" s="15"/>
       <c r="G82" s="13"/>
       <c r="H82" s="14" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="I82" s="16"/>
       <c r="J82" s="15"/>
@@ -4563,7 +4590,7 @@
       <c r="M82" s="15"/>
       <c r="N82" s="17"/>
       <c r="O82" s="14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P82" s="15"/>
       <c r="Q82" s="15"/>
@@ -4571,12 +4598,16 @@
       <c r="S82" s="14"/>
       <c r="T82" s="17"/>
       <c r="U82" s="14"/>
-      <c r="V82" s="15"/>
-      <c r="W82" s="41"/>
+      <c r="V82" s="17"/>
+      <c r="W82" s="20" t="s">
+        <v>33</v>
+      </c>
       <c r="X82" s="15"/>
       <c r="Y82" s="15"/>
-      <c r="Z82" s="15"/>
-      <c r="AA82" s="42"/>
+      <c r="Z82" s="17"/>
+      <c r="AA82" s="20" t="s">
+        <v>35</v>
+      </c>
       <c r="AB82" s="15"/>
       <c r="AC82" s="17"/>
       <c r="AD82" s="14"/>
@@ -4595,16 +4626,16 @@
       <c r="A83" s="6"/>
       <c r="B83" s="12"/>
       <c r="C83" s="13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D83" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E83" s="15"/>
       <c r="F83" s="15"/>
       <c r="G83" s="13"/>
       <c r="H83" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I83" s="16"/>
       <c r="J83" s="15"/>
@@ -4623,16 +4654,12 @@
       <c r="S83" s="14"/>
       <c r="T83" s="17"/>
       <c r="U83" s="14"/>
-      <c r="V83" s="17"/>
-      <c r="W83" s="40" t="s">
-        <v>33</v>
-      </c>
+      <c r="V83" s="15"/>
+      <c r="W83" s="22"/>
       <c r="X83" s="15"/>
       <c r="Y83" s="15"/>
       <c r="Z83" s="15"/>
-      <c r="AA83" s="41" t="s">
-        <v>36</v>
-      </c>
+      <c r="AA83" s="23"/>
       <c r="AB83" s="15"/>
       <c r="AC83" s="17"/>
       <c r="AD83" s="14"/>
@@ -4651,16 +4678,16 @@
       <c r="A84" s="6"/>
       <c r="B84" s="12"/>
       <c r="C84" s="13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D84" s="14" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="E84" s="15"/>
       <c r="F84" s="15"/>
       <c r="G84" s="13"/>
       <c r="H84" s="14" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="I84" s="16"/>
       <c r="J84" s="15"/>
@@ -4671,7 +4698,7 @@
       <c r="M84" s="15"/>
       <c r="N84" s="17"/>
       <c r="O84" s="14" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="P84" s="15"/>
       <c r="Q84" s="15"/>
@@ -4680,14 +4707,14 @@
       <c r="T84" s="17"/>
       <c r="U84" s="14"/>
       <c r="V84" s="17"/>
-      <c r="W84" s="38" t="s">
+      <c r="W84" s="21" t="s">
         <v>33</v>
       </c>
       <c r="X84" s="15"/>
       <c r="Y84" s="15"/>
-      <c r="Z84" s="17"/>
-      <c r="AA84" s="40" t="s">
-        <v>37</v>
+      <c r="Z84" s="15"/>
+      <c r="AA84" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="AB84" s="15"/>
       <c r="AC84" s="17"/>
@@ -4706,19 +4733,29 @@
     <row r="85" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="6"/>
       <c r="B85" s="12"/>
-      <c r="C85" s="13"/>
-      <c r="D85" s="14"/>
+      <c r="C85" s="13">
+        <v>5</v>
+      </c>
+      <c r="D85" s="14" t="s">
+        <v>42</v>
+      </c>
       <c r="E85" s="15"/>
       <c r="F85" s="15"/>
       <c r="G85" s="13"/>
-      <c r="H85" s="14"/>
+      <c r="H85" s="14" t="s">
+        <v>32</v>
+      </c>
       <c r="I85" s="16"/>
       <c r="J85" s="15"/>
       <c r="K85" s="17"/>
-      <c r="L85" s="14"/>
+      <c r="L85" s="14" t="s">
+        <v>30</v>
+      </c>
       <c r="M85" s="15"/>
       <c r="N85" s="17"/>
-      <c r="O85" s="14"/>
+      <c r="O85" s="14" t="s">
+        <v>31</v>
+      </c>
       <c r="P85" s="15"/>
       <c r="Q85" s="15"/>
       <c r="R85" s="17"/>
@@ -4726,11 +4763,15 @@
       <c r="T85" s="17"/>
       <c r="U85" s="14"/>
       <c r="V85" s="17"/>
-      <c r="W85" s="14"/>
+      <c r="W85" s="19" t="s">
+        <v>33</v>
+      </c>
       <c r="X85" s="15"/>
       <c r="Y85" s="15"/>
       <c r="Z85" s="17"/>
-      <c r="AA85" s="14"/>
+      <c r="AA85" s="21" t="s">
+        <v>37</v>
+      </c>
       <c r="AB85" s="15"/>
       <c r="AC85" s="17"/>
       <c r="AD85" s="14"/>
@@ -4748,16 +4789,24 @@
     <row r="86" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="6"/>
       <c r="B86" s="12"/>
-      <c r="C86" s="13"/>
-      <c r="D86" s="14"/>
+      <c r="C86" s="13">
+        <v>6</v>
+      </c>
+      <c r="D86" s="14" t="s">
+        <v>58</v>
+      </c>
       <c r="E86" s="15"/>
       <c r="F86" s="15"/>
       <c r="G86" s="13"/>
-      <c r="H86" s="14"/>
+      <c r="H86" s="14" t="s">
+        <v>59</v>
+      </c>
       <c r="I86" s="16"/>
       <c r="J86" s="15"/>
       <c r="K86" s="17"/>
-      <c r="L86" s="14"/>
+      <c r="L86" s="14" t="s">
+        <v>60</v>
+      </c>
       <c r="M86" s="15"/>
       <c r="N86" s="17"/>
       <c r="O86" s="14"/>
@@ -5754,49 +5803,92 @@
       <c r="AN109" s="7"/>
     </row>
     <row r="110" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="9"/>
-      <c r="B110" s="10"/>
-      <c r="C110" s="10"/>
-      <c r="D110" s="10"/>
-      <c r="E110" s="10"/>
-      <c r="F110" s="10"/>
-      <c r="G110" s="10"/>
-      <c r="H110" s="10"/>
-      <c r="I110" s="10"/>
-      <c r="J110" s="10"/>
-      <c r="K110" s="10"/>
-      <c r="L110" s="10"/>
-      <c r="M110" s="10"/>
-      <c r="N110" s="10"/>
-      <c r="O110" s="10"/>
-      <c r="P110" s="10"/>
-      <c r="Q110" s="10"/>
-      <c r="R110" s="10"/>
-      <c r="S110" s="10"/>
-      <c r="T110" s="10"/>
-      <c r="U110" s="10"/>
-      <c r="V110" s="10"/>
-      <c r="W110" s="10"/>
-      <c r="X110" s="10"/>
-      <c r="Y110" s="10"/>
-      <c r="Z110" s="10"/>
-      <c r="AA110" s="10"/>
-      <c r="AB110" s="10"/>
-      <c r="AC110" s="10"/>
-      <c r="AD110" s="10"/>
-      <c r="AE110" s="10"/>
-      <c r="AF110" s="10"/>
-      <c r="AG110" s="10"/>
-      <c r="AH110" s="10"/>
-      <c r="AI110" s="10"/>
-      <c r="AJ110" s="10"/>
-      <c r="AK110" s="10"/>
-      <c r="AL110" s="10"/>
-      <c r="AM110" s="10"/>
-      <c r="AN110" s="11"/>
+      <c r="A110" s="6"/>
+      <c r="B110" s="12"/>
+      <c r="C110" s="13"/>
+      <c r="D110" s="14"/>
+      <c r="E110" s="15"/>
+      <c r="F110" s="15"/>
+      <c r="G110" s="13"/>
+      <c r="H110" s="14"/>
+      <c r="I110" s="16"/>
+      <c r="J110" s="15"/>
+      <c r="K110" s="17"/>
+      <c r="L110" s="14"/>
+      <c r="M110" s="15"/>
+      <c r="N110" s="17"/>
+      <c r="O110" s="14"/>
+      <c r="P110" s="15"/>
+      <c r="Q110" s="15"/>
+      <c r="R110" s="17"/>
+      <c r="S110" s="14"/>
+      <c r="T110" s="17"/>
+      <c r="U110" s="14"/>
+      <c r="V110" s="17"/>
+      <c r="W110" s="14"/>
+      <c r="X110" s="15"/>
+      <c r="Y110" s="15"/>
+      <c r="Z110" s="17"/>
+      <c r="AA110" s="14"/>
+      <c r="AB110" s="15"/>
+      <c r="AC110" s="17"/>
+      <c r="AD110" s="14"/>
+      <c r="AE110" s="15"/>
+      <c r="AF110" s="15"/>
+      <c r="AG110" s="15"/>
+      <c r="AH110" s="15"/>
+      <c r="AI110" s="15"/>
+      <c r="AJ110" s="15"/>
+      <c r="AK110" s="15"/>
+      <c r="AL110" s="15"/>
+      <c r="AM110" s="18"/>
+      <c r="AN110" s="7"/>
+    </row>
+    <row r="111" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A111" s="9"/>
+      <c r="B111" s="10"/>
+      <c r="C111" s="10"/>
+      <c r="D111" s="10"/>
+      <c r="E111" s="10"/>
+      <c r="F111" s="10"/>
+      <c r="G111" s="10"/>
+      <c r="H111" s="10"/>
+      <c r="I111" s="10"/>
+      <c r="J111" s="10"/>
+      <c r="K111" s="10"/>
+      <c r="L111" s="10"/>
+      <c r="M111" s="10"/>
+      <c r="N111" s="10"/>
+      <c r="O111" s="10"/>
+      <c r="P111" s="10"/>
+      <c r="Q111" s="10"/>
+      <c r="R111" s="10"/>
+      <c r="S111" s="10"/>
+      <c r="T111" s="10"/>
+      <c r="U111" s="10"/>
+      <c r="V111" s="10"/>
+      <c r="W111" s="10"/>
+      <c r="X111" s="10"/>
+      <c r="Y111" s="10"/>
+      <c r="Z111" s="10"/>
+      <c r="AA111" s="10"/>
+      <c r="AB111" s="10"/>
+      <c r="AC111" s="10"/>
+      <c r="AD111" s="10"/>
+      <c r="AE111" s="10"/>
+      <c r="AF111" s="10"/>
+      <c r="AG111" s="10"/>
+      <c r="AH111" s="10"/>
+      <c r="AI111" s="10"/>
+      <c r="AJ111" s="10"/>
+      <c r="AK111" s="10"/>
+      <c r="AL111" s="10"/>
+      <c r="AM111" s="10"/>
+      <c r="AN111" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AH3:AN3"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="N4:AN4"/>
     <mergeCell ref="A1:J4"/>
@@ -5813,7 +5905,6 @@
     <mergeCell ref="W3:X3"/>
     <mergeCell ref="Y3:AE3"/>
     <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AH3:AN3"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>

--- a/doc/13_外部設計/02_外部設計_アカウント画面.xlsx
+++ b/doc/13_外部設計/02_外部設計_アカウント画面.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C2\doc\13_外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{520151D6-10E3-48FF-9E6D-6096095EBF06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70AFED23-FEC2-4F99-BF5F-A58043CA15AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="77">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -289,14 +289,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>mail</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>userID</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>name</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -441,6 +433,99 @@
     <t>submit</t>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>acount</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>アカウントボタン</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>button</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>acount_info</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>アカウント情報</t>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>group_list</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>グループ一覧</t>
+    <rPh sb="4" eb="6">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>group_info</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>グループ詳細情報</t>
+    <rPh sb="4" eb="8">
+      <t>ショウサイジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>logout</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ログアウト</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>logo</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ロゴボタン</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>today</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>日付</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>div</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>今日の日付が自動表示</t>
+    <rPh sb="0" eb="2">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>ジドウヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
@@ -449,7 +534,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -491,6 +576,12 @@
     <font>
       <sz val="8"/>
       <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
@@ -790,11 +881,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -859,6 +951,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -910,15 +1008,21 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="2" xr:uid="{150928D5-8922-4AB7-AA92-79C886771111}"/>
     <cellStyle name="標準_受入登録（詳細）2000バージョン" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -932,6 +1036,750 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>167641</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>24046</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>138545</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="グラフィックス 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB55ABB8-BAA4-A3CB-7780-6440516ADDC1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="419101" y="1463040"/>
+          <a:ext cx="9160425" cy="5152505"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>164942</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>22415</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>91158</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="楕円 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6508689C-C2CB-4226-A236-49053C831A85}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1112520" y="1117442"/>
+          <a:ext cx="670115" cy="688216"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>4398</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>10002</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>167213</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>126717</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="楕円 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C9FD476-9848-429A-83A4-598FEFC37331}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9056958" y="1343502"/>
+          <a:ext cx="665735" cy="688215"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>68295</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>231110</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>31899</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="楕円 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3F17475-4078-4A16-B139-2FCC4D8A2898}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5851875" y="1257300"/>
+          <a:ext cx="665735" cy="679599"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>103458</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>10002</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>14813</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>126717</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="楕円 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AFACC32-3761-4315-8431-24C6E8008A1F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3120978" y="2677002"/>
+          <a:ext cx="665735" cy="688215"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>126318</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>25242</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>37673</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>141957</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="楕円 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA40B474-EA74-44F2-9251-B779E6DB1ED0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6161358" y="3263742"/>
+          <a:ext cx="665735" cy="688215"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>5</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>95838</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>55722</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>7193</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>172437</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="楕円 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7DD1D39-5B15-4C3D-B218-543EAF99CA46}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3113358" y="3865722"/>
+          <a:ext cx="665735" cy="688215"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>6</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>202518</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>93822</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>113873</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>20037</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="楕円 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EBCB051-1C0F-47B0-861F-C70CC728DC60}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6237558" y="4475322"/>
+          <a:ext cx="665735" cy="688215"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>7</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>57738</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>101442</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>220553</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>27657</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="楕円 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B60310F9-BB77-43D5-9760-1452AE6C578C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3075258" y="5054442"/>
+          <a:ext cx="665735" cy="688215"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>8</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>217758</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>55722</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>129113</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>172437</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="楕円 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A137FDCE-E032-4F90-8A39-4499AF162EC2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5749878" y="5580222"/>
+          <a:ext cx="665735" cy="688215"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>9</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1223,8 +2071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="Q87" sqref="Q87"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AD7" sqref="AD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1233,200 +2081,200 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="33" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33" t="s">
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35"/>
+      <c r="X1" s="35"/>
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="35"/>
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="35"/>
+      <c r="AC1" s="35"/>
+      <c r="AD1" s="35"/>
+      <c r="AE1" s="35"/>
+      <c r="AF1" s="35"/>
+      <c r="AG1" s="35"/>
+      <c r="AH1" s="35"/>
+      <c r="AI1" s="35"/>
+      <c r="AJ1" s="35"/>
+      <c r="AK1" s="35"/>
+      <c r="AL1" s="35"/>
+      <c r="AM1" s="35"/>
+      <c r="AN1" s="36"/>
+    </row>
+    <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="31"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="X2" s="37"/>
+      <c r="Y2" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z2" s="37"/>
+      <c r="AA2" s="37"/>
+      <c r="AB2" s="37"/>
+      <c r="AC2" s="37"/>
+      <c r="AD2" s="37"/>
+      <c r="AE2" s="37"/>
+      <c r="AF2" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG2" s="38"/>
+      <c r="AH2" s="39"/>
+      <c r="AI2" s="39"/>
+      <c r="AJ2" s="39"/>
+      <c r="AK2" s="39"/>
+      <c r="AL2" s="39"/>
+      <c r="AM2" s="39"/>
+      <c r="AN2" s="40"/>
+    </row>
+    <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="31"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="33"/>
-      <c r="AC1" s="33"/>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="33"/>
-      <c r="AF1" s="33"/>
-      <c r="AG1" s="33"/>
-      <c r="AH1" s="33"/>
-      <c r="AI1" s="33"/>
-      <c r="AJ1" s="33"/>
-      <c r="AK1" s="33"/>
-      <c r="AL1" s="33"/>
-      <c r="AM1" s="33"/>
-      <c r="AN1" s="34"/>
-    </row>
-    <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="29"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="35"/>
-      <c r="V2" s="35"/>
-      <c r="W2" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="X2" s="35"/>
-      <c r="Y2" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z2" s="35"/>
-      <c r="AA2" s="35"/>
-      <c r="AB2" s="35"/>
-      <c r="AC2" s="35"/>
-      <c r="AD2" s="35"/>
-      <c r="AE2" s="35"/>
-      <c r="AF2" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="AG2" s="36"/>
-      <c r="AH2" s="37"/>
-      <c r="AI2" s="37"/>
-      <c r="AJ2" s="37"/>
-      <c r="AK2" s="37"/>
-      <c r="AL2" s="37"/>
-      <c r="AM2" s="37"/>
-      <c r="AN2" s="38"/>
-    </row>
-    <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="29"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="35"/>
-      <c r="S3" s="35"/>
-      <c r="T3" s="35"/>
-      <c r="U3" s="35"/>
-      <c r="V3" s="35"/>
-      <c r="W3" s="35" t="s">
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
+      <c r="S3" s="37"/>
+      <c r="T3" s="37"/>
+      <c r="U3" s="37"/>
+      <c r="V3" s="37"/>
+      <c r="W3" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="35"/>
-      <c r="Y3" s="39">
+      <c r="X3" s="37"/>
+      <c r="Y3" s="41">
         <v>45450</v>
       </c>
-      <c r="Z3" s="35"/>
-      <c r="AA3" s="35"/>
-      <c r="AB3" s="35"/>
-      <c r="AC3" s="35"/>
-      <c r="AD3" s="35"/>
-      <c r="AE3" s="35"/>
-      <c r="AF3" s="40" t="s">
+      <c r="Z3" s="37"/>
+      <c r="AA3" s="37"/>
+      <c r="AB3" s="37"/>
+      <c r="AC3" s="37"/>
+      <c r="AD3" s="37"/>
+      <c r="AE3" s="37"/>
+      <c r="AF3" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="40"/>
-      <c r="AH3" s="41"/>
-      <c r="AI3" s="41"/>
-      <c r="AJ3" s="41"/>
-      <c r="AK3" s="41"/>
-      <c r="AL3" s="41"/>
-      <c r="AM3" s="41"/>
-      <c r="AN3" s="42"/>
+      <c r="AG3" s="42"/>
+      <c r="AH3" s="24"/>
+      <c r="AI3" s="24"/>
+      <c r="AJ3" s="24"/>
+      <c r="AK3" s="24"/>
+      <c r="AL3" s="24"/>
+      <c r="AM3" s="24"/>
+      <c r="AN3" s="25"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="31"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="24" t="s">
+      <c r="A4" s="33"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
-      <c r="S4" s="25"/>
-      <c r="T4" s="25"/>
-      <c r="U4" s="25"/>
-      <c r="V4" s="25"/>
-      <c r="W4" s="25"/>
-      <c r="X4" s="25"/>
-      <c r="Y4" s="25"/>
-      <c r="Z4" s="25"/>
-      <c r="AA4" s="25"/>
-      <c r="AB4" s="25"/>
-      <c r="AC4" s="25"/>
-      <c r="AD4" s="25"/>
-      <c r="AE4" s="25"/>
-      <c r="AF4" s="25"/>
-      <c r="AG4" s="25"/>
-      <c r="AH4" s="25"/>
-      <c r="AI4" s="25"/>
-      <c r="AJ4" s="25"/>
-      <c r="AK4" s="25"/>
-      <c r="AL4" s="25"/>
-      <c r="AM4" s="25"/>
-      <c r="AN4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="27"/>
+      <c r="T4" s="27"/>
+      <c r="U4" s="27"/>
+      <c r="V4" s="27"/>
+      <c r="W4" s="27"/>
+      <c r="X4" s="27"/>
+      <c r="Y4" s="27"/>
+      <c r="Z4" s="27"/>
+      <c r="AA4" s="27"/>
+      <c r="AB4" s="27"/>
+      <c r="AC4" s="27"/>
+      <c r="AD4" s="27"/>
+      <c r="AE4" s="27"/>
+      <c r="AF4" s="27"/>
+      <c r="AG4" s="27"/>
+      <c r="AH4" s="27"/>
+      <c r="AI4" s="27"/>
+      <c r="AJ4" s="27"/>
+      <c r="AK4" s="27"/>
+      <c r="AL4" s="27"/>
+      <c r="AM4" s="27"/>
+      <c r="AN4" s="28"/>
     </row>
     <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
@@ -3033,7 +3881,7 @@
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
       <c r="C45" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -3110,7 +3958,7 @@
       <c r="A47" s="6"/>
       <c r="B47" s="6"/>
       <c r="C47" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L47" s="8"/>
       <c r="M47" s="8"/>
@@ -3146,7 +3994,7 @@
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
       <c r="C48" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
@@ -3189,7 +4037,7 @@
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="C49" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D49" s="8"/>
       <c r="O49" s="8"/>
@@ -3223,7 +4071,7 @@
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
       <c r="C50" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="O50" s="8"/>
       <c r="P50" s="8"/>
@@ -3426,7 +4274,7 @@
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
@@ -3469,7 +4317,7 @@
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
       <c r="C56" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
@@ -3917,38 +4765,6 @@
     <row r="67" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="6"/>
       <c r="B67" s="6"/>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8"/>
-      <c r="G67" s="8"/>
-      <c r="H67" s="8"/>
-      <c r="I67" s="8"/>
-      <c r="J67" s="8"/>
-      <c r="K67" s="8"/>
-      <c r="L67" s="8"/>
-      <c r="M67" s="8"/>
-      <c r="N67" s="8"/>
-      <c r="O67" s="8"/>
-      <c r="P67" s="8"/>
-      <c r="Q67" s="8"/>
-      <c r="R67" s="8"/>
-      <c r="S67" s="8"/>
-      <c r="T67" s="8"/>
-      <c r="U67" s="8"/>
-      <c r="V67" s="8"/>
-      <c r="W67" s="8"/>
-      <c r="X67" s="8"/>
-      <c r="Y67" s="8"/>
-      <c r="Z67" s="8"/>
-      <c r="AA67" s="8"/>
-      <c r="AB67" s="8"/>
-      <c r="AC67" s="8"/>
-      <c r="AD67" s="8"/>
-      <c r="AE67" s="8"/>
-      <c r="AF67" s="8"/>
-      <c r="AG67" s="8"/>
-      <c r="AH67" s="8"/>
-      <c r="AI67" s="8"/>
-      <c r="AJ67" s="8"/>
       <c r="AK67" s="8"/>
       <c r="AL67" s="8"/>
       <c r="AM67" s="7"/>
@@ -3957,38 +4773,6 @@
     <row r="68" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="6"/>
       <c r="B68" s="6"/>
-      <c r="E68" s="8"/>
-      <c r="F68" s="8"/>
-      <c r="G68" s="8"/>
-      <c r="H68" s="8"/>
-      <c r="I68" s="8"/>
-      <c r="J68" s="8"/>
-      <c r="K68" s="8"/>
-      <c r="L68" s="8"/>
-      <c r="M68" s="8"/>
-      <c r="N68" s="8"/>
-      <c r="O68" s="8"/>
-      <c r="P68" s="8"/>
-      <c r="Q68" s="8"/>
-      <c r="R68" s="8"/>
-      <c r="S68" s="8"/>
-      <c r="T68" s="8"/>
-      <c r="U68" s="8"/>
-      <c r="V68" s="8"/>
-      <c r="W68" s="8"/>
-      <c r="X68" s="8"/>
-      <c r="Y68" s="8"/>
-      <c r="Z68" s="8"/>
-      <c r="AA68" s="8"/>
-      <c r="AB68" s="8"/>
-      <c r="AC68" s="8"/>
-      <c r="AD68" s="8"/>
-      <c r="AE68" s="8"/>
-      <c r="AF68" s="8"/>
-      <c r="AG68" s="8"/>
-      <c r="AH68" s="8"/>
-      <c r="AI68" s="8"/>
-      <c r="AJ68" s="8"/>
       <c r="AK68" s="8"/>
       <c r="AL68" s="8"/>
       <c r="AM68" s="7"/>
@@ -3997,38 +4781,6 @@
     <row r="69" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="6"/>
       <c r="B69" s="6"/>
-      <c r="E69" s="8"/>
-      <c r="F69" s="8"/>
-      <c r="G69" s="8"/>
-      <c r="H69" s="8"/>
-      <c r="I69" s="8"/>
-      <c r="J69" s="8"/>
-      <c r="K69" s="8"/>
-      <c r="L69" s="8"/>
-      <c r="M69" s="8"/>
-      <c r="N69" s="8"/>
-      <c r="O69" s="8"/>
-      <c r="P69" s="8"/>
-      <c r="Q69" s="8"/>
-      <c r="R69" s="8"/>
-      <c r="S69" s="8"/>
-      <c r="T69" s="8"/>
-      <c r="U69" s="8"/>
-      <c r="V69" s="8"/>
-      <c r="W69" s="8"/>
-      <c r="X69" s="8"/>
-      <c r="Y69" s="8"/>
-      <c r="Z69" s="8"/>
-      <c r="AA69" s="8"/>
-      <c r="AB69" s="8"/>
-      <c r="AC69" s="8"/>
-      <c r="AD69" s="8"/>
-      <c r="AE69" s="8"/>
-      <c r="AF69" s="8"/>
-      <c r="AG69" s="8"/>
-      <c r="AH69" s="8"/>
-      <c r="AI69" s="8"/>
-      <c r="AJ69" s="8"/>
       <c r="AK69" s="8"/>
       <c r="AL69" s="8"/>
       <c r="AM69" s="7"/>
@@ -4037,38 +4789,6 @@
     <row r="70" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="6"/>
       <c r="B70" s="6"/>
-      <c r="E70" s="8"/>
-      <c r="F70" s="8"/>
-      <c r="G70" s="8"/>
-      <c r="H70" s="8"/>
-      <c r="I70" s="8"/>
-      <c r="J70" s="8"/>
-      <c r="K70" s="8"/>
-      <c r="L70" s="8"/>
-      <c r="M70" s="8"/>
-      <c r="N70" s="8"/>
-      <c r="O70" s="8"/>
-      <c r="P70" s="8"/>
-      <c r="Q70" s="8"/>
-      <c r="R70" s="8"/>
-      <c r="S70" s="8"/>
-      <c r="T70" s="8"/>
-      <c r="U70" s="8"/>
-      <c r="V70" s="8"/>
-      <c r="W70" s="8"/>
-      <c r="X70" s="8"/>
-      <c r="Y70" s="8"/>
-      <c r="Z70" s="8"/>
-      <c r="AA70" s="8"/>
-      <c r="AB70" s="8"/>
-      <c r="AC70" s="8"/>
-      <c r="AD70" s="8"/>
-      <c r="AE70" s="8"/>
-      <c r="AF70" s="8"/>
-      <c r="AG70" s="8"/>
-      <c r="AH70" s="8"/>
-      <c r="AI70" s="8"/>
-      <c r="AJ70" s="8"/>
       <c r="AK70" s="8"/>
       <c r="AL70" s="8"/>
       <c r="AM70" s="7"/>
@@ -4077,38 +4797,6 @@
     <row r="71" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="6"/>
       <c r="B71" s="6"/>
-      <c r="E71" s="8"/>
-      <c r="F71" s="8"/>
-      <c r="G71" s="8"/>
-      <c r="H71" s="8"/>
-      <c r="I71" s="8"/>
-      <c r="J71" s="8"/>
-      <c r="K71" s="8"/>
-      <c r="L71" s="8"/>
-      <c r="M71" s="8"/>
-      <c r="N71" s="8"/>
-      <c r="O71" s="8"/>
-      <c r="P71" s="8"/>
-      <c r="Q71" s="8"/>
-      <c r="R71" s="8"/>
-      <c r="S71" s="8"/>
-      <c r="T71" s="8"/>
-      <c r="U71" s="8"/>
-      <c r="V71" s="8"/>
-      <c r="W71" s="8"/>
-      <c r="X71" s="8"/>
-      <c r="Y71" s="8"/>
-      <c r="Z71" s="8"/>
-      <c r="AA71" s="8"/>
-      <c r="AB71" s="8"/>
-      <c r="AC71" s="8"/>
-      <c r="AD71" s="8"/>
-      <c r="AE71" s="8"/>
-      <c r="AF71" s="8"/>
-      <c r="AG71" s="8"/>
-      <c r="AH71" s="8"/>
-      <c r="AI71" s="8"/>
-      <c r="AJ71" s="8"/>
       <c r="AK71" s="8"/>
       <c r="AL71" s="8"/>
       <c r="AM71" s="7"/>
@@ -4117,38 +4805,6 @@
     <row r="72" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="6"/>
       <c r="B72" s="6"/>
-      <c r="E72" s="8"/>
-      <c r="F72" s="8"/>
-      <c r="G72" s="8"/>
-      <c r="H72" s="8"/>
-      <c r="I72" s="8"/>
-      <c r="J72" s="8"/>
-      <c r="K72" s="8"/>
-      <c r="L72" s="8"/>
-      <c r="M72" s="8"/>
-      <c r="N72" s="8"/>
-      <c r="O72" s="8"/>
-      <c r="P72" s="8"/>
-      <c r="Q72" s="8"/>
-      <c r="R72" s="8"/>
-      <c r="S72" s="8"/>
-      <c r="T72" s="8"/>
-      <c r="U72" s="8"/>
-      <c r="V72" s="8"/>
-      <c r="W72" s="8"/>
-      <c r="X72" s="8"/>
-      <c r="Y72" s="8"/>
-      <c r="Z72" s="8"/>
-      <c r="AA72" s="8"/>
-      <c r="AB72" s="8"/>
-      <c r="AC72" s="8"/>
-      <c r="AD72" s="8"/>
-      <c r="AE72" s="8"/>
-      <c r="AF72" s="8"/>
-      <c r="AG72" s="8"/>
-      <c r="AH72" s="8"/>
-      <c r="AI72" s="8"/>
-      <c r="AJ72" s="8"/>
       <c r="AK72" s="8"/>
       <c r="AL72" s="8"/>
       <c r="AM72" s="7"/>
@@ -4157,38 +4813,6 @@
     <row r="73" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="6"/>
       <c r="B73" s="6"/>
-      <c r="E73" s="8"/>
-      <c r="F73" s="8"/>
-      <c r="G73" s="8"/>
-      <c r="H73" s="8"/>
-      <c r="I73" s="8"/>
-      <c r="J73" s="8"/>
-      <c r="K73" s="8"/>
-      <c r="L73" s="8"/>
-      <c r="M73" s="8"/>
-      <c r="N73" s="8"/>
-      <c r="O73" s="8"/>
-      <c r="P73" s="8"/>
-      <c r="Q73" s="8"/>
-      <c r="R73" s="8"/>
-      <c r="S73" s="8"/>
-      <c r="T73" s="8"/>
-      <c r="U73" s="8"/>
-      <c r="V73" s="8"/>
-      <c r="W73" s="8"/>
-      <c r="X73" s="8"/>
-      <c r="Y73" s="8"/>
-      <c r="Z73" s="8"/>
-      <c r="AA73" s="8"/>
-      <c r="AB73" s="8"/>
-      <c r="AC73" s="8"/>
-      <c r="AD73" s="8"/>
-      <c r="AE73" s="8"/>
-      <c r="AF73" s="8"/>
-      <c r="AG73" s="8"/>
-      <c r="AH73" s="8"/>
-      <c r="AI73" s="8"/>
-      <c r="AJ73" s="8"/>
       <c r="AK73" s="8"/>
       <c r="AL73" s="8"/>
       <c r="AM73" s="7"/>
@@ -4517,49 +5141,43 @@
         <v>1</v>
       </c>
       <c r="D81" s="14" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="E81" s="15"/>
       <c r="F81" s="15"/>
       <c r="G81" s="13"/>
       <c r="H81" s="14" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="I81" s="16"/>
       <c r="J81" s="15"/>
       <c r="K81" s="17"/>
       <c r="L81" s="14" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="M81" s="15"/>
       <c r="N81" s="17"/>
-      <c r="O81" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="P81" s="15"/>
-      <c r="Q81" s="15"/>
-      <c r="R81" s="17"/>
-      <c r="S81" s="14"/>
-      <c r="T81" s="17"/>
-      <c r="U81" s="14"/>
-      <c r="V81" s="17"/>
-      <c r="W81" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="X81" s="15"/>
-      <c r="Y81" s="15"/>
-      <c r="Z81" s="17"/>
-      <c r="AA81" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB81" s="15"/>
-      <c r="AC81" s="17"/>
-      <c r="AD81" s="14"/>
-      <c r="AE81" s="15"/>
-      <c r="AF81" s="15"/>
-      <c r="AG81" s="15"/>
-      <c r="AH81" s="15"/>
-      <c r="AI81" s="15"/>
+      <c r="O81" s="43"/>
+      <c r="P81" s="44"/>
+      <c r="Q81" s="44"/>
+      <c r="R81" s="45"/>
+      <c r="S81" s="43"/>
+      <c r="T81" s="45"/>
+      <c r="U81" s="43"/>
+      <c r="V81" s="45"/>
+      <c r="W81" s="43"/>
+      <c r="X81" s="44"/>
+      <c r="Y81" s="44"/>
+      <c r="Z81" s="45"/>
+      <c r="AA81" s="43"/>
+      <c r="AB81" s="44"/>
+      <c r="AC81" s="45"/>
+      <c r="AD81" s="43"/>
+      <c r="AE81" s="44"/>
+      <c r="AF81" s="44"/>
+      <c r="AG81" s="44"/>
+      <c r="AH81" s="44"/>
+      <c r="AI81" s="44"/>
       <c r="AJ81" s="15"/>
       <c r="AK81" s="15"/>
       <c r="AL81" s="15"/>
@@ -4570,52 +5188,46 @@
       <c r="A82" s="6"/>
       <c r="B82" s="12"/>
       <c r="C82" s="13">
-        <v>2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D82" s="14" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="E82" s="15"/>
       <c r="F82" s="15"/>
       <c r="G82" s="13"/>
       <c r="H82" s="14" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="I82" s="16"/>
       <c r="J82" s="15"/>
       <c r="K82" s="17"/>
       <c r="L82" s="14" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="M82" s="15"/>
       <c r="N82" s="17"/>
-      <c r="O82" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="P82" s="15"/>
-      <c r="Q82" s="15"/>
-      <c r="R82" s="17"/>
-      <c r="S82" s="14"/>
-      <c r="T82" s="17"/>
-      <c r="U82" s="14"/>
-      <c r="V82" s="17"/>
-      <c r="W82" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="X82" s="15"/>
-      <c r="Y82" s="15"/>
-      <c r="Z82" s="17"/>
-      <c r="AA82" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB82" s="15"/>
-      <c r="AC82" s="17"/>
-      <c r="AD82" s="14"/>
-      <c r="AE82" s="15"/>
-      <c r="AF82" s="15"/>
-      <c r="AG82" s="15"/>
-      <c r="AH82" s="15"/>
-      <c r="AI82" s="15"/>
+      <c r="O82" s="43"/>
+      <c r="P82" s="44"/>
+      <c r="Q82" s="44"/>
+      <c r="R82" s="45"/>
+      <c r="S82" s="43"/>
+      <c r="T82" s="45"/>
+      <c r="U82" s="43"/>
+      <c r="V82" s="45"/>
+      <c r="W82" s="43"/>
+      <c r="X82" s="44"/>
+      <c r="Y82" s="44"/>
+      <c r="Z82" s="45"/>
+      <c r="AA82" s="43"/>
+      <c r="AB82" s="44"/>
+      <c r="AC82" s="45"/>
+      <c r="AD82" s="43"/>
+      <c r="AE82" s="44"/>
+      <c r="AF82" s="44"/>
+      <c r="AG82" s="44"/>
+      <c r="AH82" s="44"/>
+      <c r="AI82" s="44"/>
       <c r="AJ82" s="15"/>
       <c r="AK82" s="15"/>
       <c r="AL82" s="15"/>
@@ -4626,48 +5238,46 @@
       <c r="A83" s="6"/>
       <c r="B83" s="12"/>
       <c r="C83" s="13">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="D83" s="14" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="E83" s="15"/>
       <c r="F83" s="15"/>
       <c r="G83" s="13"/>
       <c r="H83" s="14" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="I83" s="16"/>
       <c r="J83" s="15"/>
       <c r="K83" s="17"/>
       <c r="L83" s="14" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="M83" s="15"/>
       <c r="N83" s="17"/>
-      <c r="O83" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="P83" s="15"/>
-      <c r="Q83" s="15"/>
-      <c r="R83" s="17"/>
-      <c r="S83" s="14"/>
-      <c r="T83" s="17"/>
-      <c r="U83" s="14"/>
-      <c r="V83" s="15"/>
-      <c r="W83" s="22"/>
-      <c r="X83" s="15"/>
-      <c r="Y83" s="15"/>
-      <c r="Z83" s="15"/>
-      <c r="AA83" s="23"/>
-      <c r="AB83" s="15"/>
-      <c r="AC83" s="17"/>
-      <c r="AD83" s="14"/>
-      <c r="AE83" s="15"/>
-      <c r="AF83" s="15"/>
-      <c r="AG83" s="15"/>
-      <c r="AH83" s="15"/>
-      <c r="AI83" s="15"/>
+      <c r="O83" s="43"/>
+      <c r="P83" s="44"/>
+      <c r="Q83" s="44"/>
+      <c r="R83" s="45"/>
+      <c r="S83" s="43"/>
+      <c r="T83" s="45"/>
+      <c r="U83" s="43"/>
+      <c r="V83" s="45"/>
+      <c r="W83" s="43"/>
+      <c r="X83" s="44"/>
+      <c r="Y83" s="44"/>
+      <c r="Z83" s="45"/>
+      <c r="AA83" s="43"/>
+      <c r="AB83" s="44"/>
+      <c r="AC83" s="45"/>
+      <c r="AD83" s="43"/>
+      <c r="AE83" s="44"/>
+      <c r="AF83" s="44"/>
+      <c r="AG83" s="44"/>
+      <c r="AH83" s="44"/>
+      <c r="AI83" s="44"/>
       <c r="AJ83" s="15"/>
       <c r="AK83" s="15"/>
       <c r="AL83" s="15"/>
@@ -4678,52 +5288,46 @@
       <c r="A84" s="6"/>
       <c r="B84" s="12"/>
       <c r="C84" s="13">
-        <v>4</v>
+        <v>1.3</v>
       </c>
       <c r="D84" s="14" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="E84" s="15"/>
       <c r="F84" s="15"/>
       <c r="G84" s="13"/>
       <c r="H84" s="14" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="I84" s="16"/>
       <c r="J84" s="15"/>
       <c r="K84" s="17"/>
       <c r="L84" s="14" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="M84" s="15"/>
       <c r="N84" s="17"/>
-      <c r="O84" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="P84" s="15"/>
-      <c r="Q84" s="15"/>
-      <c r="R84" s="17"/>
-      <c r="S84" s="14"/>
-      <c r="T84" s="17"/>
-      <c r="U84" s="14"/>
-      <c r="V84" s="17"/>
-      <c r="W84" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="X84" s="15"/>
-      <c r="Y84" s="15"/>
-      <c r="Z84" s="15"/>
-      <c r="AA84" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB84" s="15"/>
-      <c r="AC84" s="17"/>
-      <c r="AD84" s="14"/>
-      <c r="AE84" s="15"/>
-      <c r="AF84" s="15"/>
-      <c r="AG84" s="15"/>
-      <c r="AH84" s="15"/>
-      <c r="AI84" s="15"/>
+      <c r="O84" s="43"/>
+      <c r="P84" s="44"/>
+      <c r="Q84" s="44"/>
+      <c r="R84" s="45"/>
+      <c r="S84" s="43"/>
+      <c r="T84" s="45"/>
+      <c r="U84" s="43"/>
+      <c r="V84" s="45"/>
+      <c r="W84" s="43"/>
+      <c r="X84" s="44"/>
+      <c r="Y84" s="44"/>
+      <c r="Z84" s="45"/>
+      <c r="AA84" s="43"/>
+      <c r="AB84" s="44"/>
+      <c r="AC84" s="45"/>
+      <c r="AD84" s="43"/>
+      <c r="AE84" s="44"/>
+      <c r="AF84" s="44"/>
+      <c r="AG84" s="44"/>
+      <c r="AH84" s="44"/>
+      <c r="AI84" s="44"/>
       <c r="AJ84" s="15"/>
       <c r="AK84" s="15"/>
       <c r="AL84" s="15"/>
@@ -4734,52 +5338,46 @@
       <c r="A85" s="6"/>
       <c r="B85" s="12"/>
       <c r="C85" s="13">
-        <v>5</v>
+        <v>1.4</v>
       </c>
       <c r="D85" s="14" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="E85" s="15"/>
       <c r="F85" s="15"/>
       <c r="G85" s="13"/>
       <c r="H85" s="14" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="I85" s="16"/>
       <c r="J85" s="15"/>
       <c r="K85" s="17"/>
       <c r="L85" s="14" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="M85" s="15"/>
       <c r="N85" s="17"/>
-      <c r="O85" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="P85" s="15"/>
-      <c r="Q85" s="15"/>
-      <c r="R85" s="17"/>
-      <c r="S85" s="14"/>
-      <c r="T85" s="17"/>
-      <c r="U85" s="14"/>
-      <c r="V85" s="17"/>
-      <c r="W85" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="X85" s="15"/>
-      <c r="Y85" s="15"/>
-      <c r="Z85" s="17"/>
-      <c r="AA85" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB85" s="15"/>
-      <c r="AC85" s="17"/>
-      <c r="AD85" s="14"/>
-      <c r="AE85" s="15"/>
-      <c r="AF85" s="15"/>
-      <c r="AG85" s="15"/>
-      <c r="AH85" s="15"/>
-      <c r="AI85" s="15"/>
+      <c r="O85" s="43"/>
+      <c r="P85" s="44"/>
+      <c r="Q85" s="44"/>
+      <c r="R85" s="45"/>
+      <c r="S85" s="43"/>
+      <c r="T85" s="45"/>
+      <c r="U85" s="43"/>
+      <c r="V85" s="45"/>
+      <c r="W85" s="43"/>
+      <c r="X85" s="44"/>
+      <c r="Y85" s="44"/>
+      <c r="Z85" s="45"/>
+      <c r="AA85" s="43"/>
+      <c r="AB85" s="44"/>
+      <c r="AC85" s="45"/>
+      <c r="AD85" s="43"/>
+      <c r="AE85" s="44"/>
+      <c r="AF85" s="44"/>
+      <c r="AG85" s="44"/>
+      <c r="AH85" s="44"/>
+      <c r="AI85" s="44"/>
       <c r="AJ85" s="15"/>
       <c r="AK85" s="15"/>
       <c r="AL85" s="15"/>
@@ -4789,47 +5387,47 @@
     <row r="86" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="6"/>
       <c r="B86" s="12"/>
-      <c r="C86" s="13">
-        <v>6</v>
-      </c>
-      <c r="D86" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="E86" s="15"/>
-      <c r="F86" s="15"/>
-      <c r="G86" s="13"/>
-      <c r="H86" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="I86" s="16"/>
-      <c r="J86" s="15"/>
-      <c r="K86" s="17"/>
-      <c r="L86" s="14" t="s">
-        <v>60</v>
+      <c r="C86" s="46">
+        <v>2</v>
+      </c>
+      <c r="D86" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="E86" s="44"/>
+      <c r="F86" s="44"/>
+      <c r="G86" s="46"/>
+      <c r="H86" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="I86" s="47"/>
+      <c r="J86" s="44"/>
+      <c r="K86" s="45"/>
+      <c r="L86" s="43" t="s">
+        <v>61</v>
       </c>
       <c r="M86" s="15"/>
       <c r="N86" s="17"/>
-      <c r="O86" s="14"/>
-      <c r="P86" s="15"/>
-      <c r="Q86" s="15"/>
-      <c r="R86" s="17"/>
-      <c r="S86" s="14"/>
-      <c r="T86" s="17"/>
-      <c r="U86" s="14"/>
-      <c r="V86" s="17"/>
-      <c r="W86" s="14"/>
-      <c r="X86" s="15"/>
-      <c r="Y86" s="15"/>
-      <c r="Z86" s="17"/>
-      <c r="AA86" s="14"/>
-      <c r="AB86" s="15"/>
-      <c r="AC86" s="17"/>
-      <c r="AD86" s="14"/>
-      <c r="AE86" s="15"/>
-      <c r="AF86" s="15"/>
-      <c r="AG86" s="15"/>
-      <c r="AH86" s="15"/>
-      <c r="AI86" s="15"/>
+      <c r="O86" s="43"/>
+      <c r="P86" s="44"/>
+      <c r="Q86" s="44"/>
+      <c r="R86" s="45"/>
+      <c r="S86" s="43"/>
+      <c r="T86" s="45"/>
+      <c r="U86" s="43"/>
+      <c r="V86" s="45"/>
+      <c r="W86" s="43"/>
+      <c r="X86" s="44"/>
+      <c r="Y86" s="44"/>
+      <c r="Z86" s="45"/>
+      <c r="AA86" s="43"/>
+      <c r="AB86" s="44"/>
+      <c r="AC86" s="45"/>
+      <c r="AD86" s="43"/>
+      <c r="AE86" s="44"/>
+      <c r="AF86" s="44"/>
+      <c r="AG86" s="44"/>
+      <c r="AH86" s="44"/>
+      <c r="AI86" s="44"/>
       <c r="AJ86" s="15"/>
       <c r="AK86" s="15"/>
       <c r="AL86" s="15"/>
@@ -4839,39 +5437,51 @@
     <row r="87" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="6"/>
       <c r="B87" s="12"/>
-      <c r="C87" s="13"/>
-      <c r="D87" s="14"/>
+      <c r="C87" s="13">
+        <v>3</v>
+      </c>
+      <c r="D87" s="14" t="s">
+        <v>72</v>
+      </c>
       <c r="E87" s="15"/>
       <c r="F87" s="15"/>
       <c r="G87" s="13"/>
-      <c r="H87" s="14"/>
+      <c r="H87" s="14" t="s">
+        <v>73</v>
+      </c>
       <c r="I87" s="16"/>
       <c r="J87" s="15"/>
       <c r="K87" s="17"/>
-      <c r="L87" s="14"/>
+      <c r="L87" s="14" t="s">
+        <v>74</v>
+      </c>
       <c r="M87" s="15"/>
       <c r="N87" s="17"/>
-      <c r="O87" s="14"/>
-      <c r="P87" s="15"/>
-      <c r="Q87" s="15"/>
-      <c r="R87" s="17"/>
-      <c r="S87" s="14"/>
-      <c r="T87" s="17"/>
-      <c r="U87" s="14"/>
-      <c r="V87" s="17"/>
-      <c r="W87" s="14"/>
-      <c r="X87" s="15"/>
-      <c r="Y87" s="15"/>
-      <c r="Z87" s="17"/>
-      <c r="AA87" s="14"/>
-      <c r="AB87" s="15"/>
-      <c r="AC87" s="17"/>
-      <c r="AD87" s="14"/>
-      <c r="AE87" s="15"/>
-      <c r="AF87" s="15"/>
-      <c r="AG87" s="15"/>
-      <c r="AH87" s="15"/>
-      <c r="AI87" s="15"/>
+      <c r="O87" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="P87" s="44"/>
+      <c r="Q87" s="44"/>
+      <c r="R87" s="45"/>
+      <c r="S87" s="43"/>
+      <c r="T87" s="45"/>
+      <c r="U87" s="43"/>
+      <c r="V87" s="45"/>
+      <c r="W87" s="43"/>
+      <c r="X87" s="44"/>
+      <c r="Y87" s="44"/>
+      <c r="Z87" s="45"/>
+      <c r="AA87" s="43"/>
+      <c r="AB87" s="44"/>
+      <c r="AC87" s="45"/>
+      <c r="AD87" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE87" s="44"/>
+      <c r="AF87" s="44"/>
+      <c r="AG87" s="44"/>
+      <c r="AH87" s="44"/>
+      <c r="AI87" s="44"/>
       <c r="AJ87" s="15"/>
       <c r="AK87" s="15"/>
       <c r="AL87" s="15"/>
@@ -4881,19 +5491,29 @@
     <row r="88" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="6"/>
       <c r="B88" s="12"/>
-      <c r="C88" s="13"/>
-      <c r="D88" s="14"/>
+      <c r="C88" s="13">
+        <v>4</v>
+      </c>
+      <c r="D88" s="14" t="s">
+        <v>34</v>
+      </c>
       <c r="E88" s="15"/>
       <c r="F88" s="15"/>
       <c r="G88" s="13"/>
-      <c r="H88" s="14"/>
+      <c r="H88" s="14" t="s">
+        <v>29</v>
+      </c>
       <c r="I88" s="16"/>
       <c r="J88" s="15"/>
       <c r="K88" s="17"/>
-      <c r="L88" s="14"/>
+      <c r="L88" s="14" t="s">
+        <v>30</v>
+      </c>
       <c r="M88" s="15"/>
       <c r="N88" s="17"/>
-      <c r="O88" s="14"/>
+      <c r="O88" s="14" t="s">
+        <v>31</v>
+      </c>
       <c r="P88" s="15"/>
       <c r="Q88" s="15"/>
       <c r="R88" s="17"/>
@@ -4901,11 +5521,15 @@
       <c r="T88" s="17"/>
       <c r="U88" s="14"/>
       <c r="V88" s="17"/>
-      <c r="W88" s="14"/>
+      <c r="W88" s="19" t="s">
+        <v>33</v>
+      </c>
       <c r="X88" s="15"/>
       <c r="Y88" s="15"/>
       <c r="Z88" s="17"/>
-      <c r="AA88" s="14"/>
+      <c r="AA88" s="19" t="s">
+        <v>34</v>
+      </c>
       <c r="AB88" s="15"/>
       <c r="AC88" s="17"/>
       <c r="AD88" s="14"/>
@@ -4923,19 +5547,29 @@
     <row r="89" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="6"/>
       <c r="B89" s="12"/>
-      <c r="C89" s="13"/>
-      <c r="D89" s="14"/>
+      <c r="C89" s="13">
+        <v>5</v>
+      </c>
+      <c r="D89" s="14" t="s">
+        <v>35</v>
+      </c>
       <c r="E89" s="15"/>
       <c r="F89" s="15"/>
       <c r="G89" s="13"/>
-      <c r="H89" s="14"/>
+      <c r="H89" s="14" t="s">
+        <v>38</v>
+      </c>
       <c r="I89" s="16"/>
       <c r="J89" s="15"/>
       <c r="K89" s="17"/>
-      <c r="L89" s="14"/>
+      <c r="L89" s="14" t="s">
+        <v>30</v>
+      </c>
       <c r="M89" s="15"/>
       <c r="N89" s="17"/>
-      <c r="O89" s="14"/>
+      <c r="O89" s="14" t="s">
+        <v>35</v>
+      </c>
       <c r="P89" s="15"/>
       <c r="Q89" s="15"/>
       <c r="R89" s="17"/>
@@ -4943,11 +5577,15 @@
       <c r="T89" s="17"/>
       <c r="U89" s="14"/>
       <c r="V89" s="17"/>
-      <c r="W89" s="14"/>
+      <c r="W89" s="20" t="s">
+        <v>33</v>
+      </c>
       <c r="X89" s="15"/>
       <c r="Y89" s="15"/>
       <c r="Z89" s="17"/>
-      <c r="AA89" s="14"/>
+      <c r="AA89" s="20" t="s">
+        <v>35</v>
+      </c>
       <c r="AB89" s="15"/>
       <c r="AC89" s="17"/>
       <c r="AD89" s="14"/>
@@ -4965,31 +5603,41 @@
     <row r="90" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="6"/>
       <c r="B90" s="12"/>
-      <c r="C90" s="13"/>
-      <c r="D90" s="14"/>
+      <c r="C90" s="13">
+        <v>6</v>
+      </c>
+      <c r="D90" s="14" t="s">
+        <v>52</v>
+      </c>
       <c r="E90" s="15"/>
       <c r="F90" s="15"/>
       <c r="G90" s="13"/>
-      <c r="H90" s="14"/>
+      <c r="H90" s="14" t="s">
+        <v>50</v>
+      </c>
       <c r="I90" s="16"/>
       <c r="J90" s="15"/>
       <c r="K90" s="17"/>
-      <c r="L90" s="14"/>
+      <c r="L90" s="14" t="s">
+        <v>30</v>
+      </c>
       <c r="M90" s="15"/>
       <c r="N90" s="17"/>
-      <c r="O90" s="14"/>
+      <c r="O90" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="P90" s="15"/>
       <c r="Q90" s="15"/>
       <c r="R90" s="17"/>
       <c r="S90" s="14"/>
       <c r="T90" s="17"/>
       <c r="U90" s="14"/>
-      <c r="V90" s="17"/>
-      <c r="W90" s="14"/>
+      <c r="V90" s="15"/>
+      <c r="W90" s="22"/>
       <c r="X90" s="15"/>
       <c r="Y90" s="15"/>
-      <c r="Z90" s="17"/>
-      <c r="AA90" s="14"/>
+      <c r="Z90" s="15"/>
+      <c r="AA90" s="23"/>
       <c r="AB90" s="15"/>
       <c r="AC90" s="17"/>
       <c r="AD90" s="14"/>
@@ -5007,19 +5655,29 @@
     <row r="91" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="6"/>
       <c r="B91" s="12"/>
-      <c r="C91" s="13"/>
-      <c r="D91" s="14"/>
+      <c r="C91" s="13">
+        <v>7</v>
+      </c>
+      <c r="D91" s="14" t="s">
+        <v>53</v>
+      </c>
       <c r="E91" s="15"/>
       <c r="F91" s="15"/>
       <c r="G91" s="13"/>
-      <c r="H91" s="14"/>
+      <c r="H91" s="14" t="s">
+        <v>51</v>
+      </c>
       <c r="I91" s="16"/>
       <c r="J91" s="15"/>
       <c r="K91" s="17"/>
-      <c r="L91" s="14"/>
+      <c r="L91" s="14" t="s">
+        <v>30</v>
+      </c>
       <c r="M91" s="15"/>
       <c r="N91" s="17"/>
-      <c r="O91" s="14"/>
+      <c r="O91" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="P91" s="15"/>
       <c r="Q91" s="15"/>
       <c r="R91" s="17"/>
@@ -5027,11 +5685,15 @@
       <c r="T91" s="17"/>
       <c r="U91" s="14"/>
       <c r="V91" s="17"/>
-      <c r="W91" s="14"/>
+      <c r="W91" s="21" t="s">
+        <v>33</v>
+      </c>
       <c r="X91" s="15"/>
       <c r="Y91" s="15"/>
-      <c r="Z91" s="17"/>
-      <c r="AA91" s="14"/>
+      <c r="Z91" s="15"/>
+      <c r="AA91" s="22" t="s">
+        <v>36</v>
+      </c>
       <c r="AB91" s="15"/>
       <c r="AC91" s="17"/>
       <c r="AD91" s="14"/>
@@ -5049,19 +5711,29 @@
     <row r="92" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="6"/>
       <c r="B92" s="12"/>
-      <c r="C92" s="13"/>
-      <c r="D92" s="14"/>
+      <c r="C92" s="13">
+        <v>8</v>
+      </c>
+      <c r="D92" s="14" t="s">
+        <v>40</v>
+      </c>
       <c r="E92" s="15"/>
       <c r="F92" s="15"/>
       <c r="G92" s="13"/>
-      <c r="H92" s="14"/>
+      <c r="H92" s="14" t="s">
+        <v>32</v>
+      </c>
       <c r="I92" s="16"/>
       <c r="J92" s="15"/>
       <c r="K92" s="17"/>
-      <c r="L92" s="14"/>
+      <c r="L92" s="14" t="s">
+        <v>30</v>
+      </c>
       <c r="M92" s="15"/>
       <c r="N92" s="17"/>
-      <c r="O92" s="14"/>
+      <c r="O92" s="14" t="s">
+        <v>31</v>
+      </c>
       <c r="P92" s="15"/>
       <c r="Q92" s="15"/>
       <c r="R92" s="17"/>
@@ -5069,11 +5741,15 @@
       <c r="T92" s="17"/>
       <c r="U92" s="14"/>
       <c r="V92" s="17"/>
-      <c r="W92" s="14"/>
+      <c r="W92" s="19" t="s">
+        <v>33</v>
+      </c>
       <c r="X92" s="15"/>
       <c r="Y92" s="15"/>
       <c r="Z92" s="17"/>
-      <c r="AA92" s="14"/>
+      <c r="AA92" s="21" t="s">
+        <v>37</v>
+      </c>
       <c r="AB92" s="15"/>
       <c r="AC92" s="17"/>
       <c r="AD92" s="14"/>
@@ -5091,16 +5767,24 @@
     <row r="93" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="6"/>
       <c r="B93" s="12"/>
-      <c r="C93" s="13"/>
-      <c r="D93" s="14"/>
+      <c r="C93" s="13">
+        <v>9</v>
+      </c>
+      <c r="D93" s="14" t="s">
+        <v>56</v>
+      </c>
       <c r="E93" s="15"/>
       <c r="F93" s="15"/>
       <c r="G93" s="13"/>
-      <c r="H93" s="14"/>
+      <c r="H93" s="14" t="s">
+        <v>57</v>
+      </c>
       <c r="I93" s="16"/>
       <c r="J93" s="15"/>
       <c r="K93" s="17"/>
-      <c r="L93" s="14"/>
+      <c r="L93" s="14" t="s">
+        <v>58</v>
+      </c>
       <c r="M93" s="15"/>
       <c r="N93" s="17"/>
       <c r="O93" s="14"/>
@@ -5888,6 +6572,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="AH3:AN3"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="N4:AN4"/>
@@ -5904,7 +6589,6 @@
     <mergeCell ref="N3:V3"/>
     <mergeCell ref="W3:X3"/>
     <mergeCell ref="Y3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -5912,5 +6596,6 @@
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;C&amp;8&amp;P／&amp;"／,標準"&amp;N</oddFooter>
   </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>